--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325901.034300603</v>
+        <v>3325901.034300574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500638</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500638</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177145</v>
+        <v>3940022.790763178</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177145</v>
+        <v>3940022.790763178</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494247180.596206</v>
+        <v>56687243.12577436</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V5" t="n">
         <v>629.8510241668239</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1198,7 +1198,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V8" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W8" t="n">
         <v>638.3734759809475</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D20" t="n">
         <v>410.3391557398498</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963210622</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2274,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>25.70923750768745</v>
+        <v>67.808644398718</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U26" t="n">
         <v>648.751427201877</v>
@@ -2626,7 +2626,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287078554</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4956611619018</v>
+        <v>397.8840054526889</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129188</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210684981</v>
+        <v>359.6204767777102</v>
       </c>
       <c r="T29" t="n">
         <v>560.9649184118246</v>
@@ -2885,7 +2885,7 @@
         <v>347.9376868975462</v>
       </c>
       <c r="E30" t="n">
-        <v>342.6720972217562</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F30" t="n">
         <v>339.6362423377204</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821978832</v>
+        <v>350.6276822437266</v>
       </c>
       <c r="S30" t="n">
-        <v>406.659215104951</v>
+        <v>408.1929150587945</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777347</v>
@@ -2936,7 +2936,7 @@
         <v>400.0036144770115</v>
       </c>
       <c r="V30" t="n">
-        <v>414.5106671913637</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
         <v>432.3731429096721</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
     </row>
     <row r="32">
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E35" t="n">
         <v>404.3632896068686</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3757,7 +3757,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4336,25 +4336,25 @@
         <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>599.7771454756521</v>
+        <v>669.1334430047632</v>
       </c>
       <c r="K2" t="n">
-        <v>1339.420289043491</v>
+        <v>1408.776586572602</v>
       </c>
       <c r="L2" t="n">
-        <v>2936.062862426063</v>
+        <v>2326.369309889185</v>
       </c>
       <c r="M2" t="n">
-        <v>3418.242061939566</v>
+        <v>2808.548509402688</v>
       </c>
       <c r="N2" t="n">
-        <v>3983.285125812238</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O2" t="n">
-        <v>4893.440008752982</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q2" t="n">
         <v>7048</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4409,7 +4409,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4506,13 +4506,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966358</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,52 +4549,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>2748.266680678617</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M5" t="n">
-        <v>4280.114215286949</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N5" t="n">
-        <v>4845.157279159621</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100365</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4606,19 +4606,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4737,16 +4737,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4810,25 +4810,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
-        <v>2758.60299862014</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M8" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N8" t="n">
-        <v>3805.825262006314</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
         <v>6931.116362236997</v>
@@ -4837,13 +4837,13 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
         <v>4826.598134791557</v>
@@ -4977,13 +4977,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5032,43 +5032,43 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043491</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L11" t="n">
-        <v>2257.013012360075</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M11" t="n">
-        <v>3670.420662750071</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N11" t="n">
-        <v>4235.463726622743</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O11" t="n">
-        <v>5145.618609563487</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P11" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5211,46 +5211,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5281,31 +5281,31 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2018.47013910948</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
-        <v>2936.062862426063</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M14" t="n">
-        <v>3418.242061939566</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N14" t="n">
-        <v>3983.285125812238</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O14" t="n">
-        <v>4893.440008752982</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
@@ -5448,37 +5448,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
         <v>140.96</v>
@@ -5497,10 +5497,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
         <v>1711.662994324041</v>
@@ -5521,19 +5521,19 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K17" t="n">
-        <v>2124.71495243113</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L17" t="n">
-        <v>3042.307675747712</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M17" t="n">
-        <v>3524.486875261216</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N17" t="n">
-        <v>4089.529939133888</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O17" t="n">
         <v>5638.428524337362</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5685,46 +5685,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347547103</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622049129</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626352311</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859072646</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361352603</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003243053</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M20" t="n">
-        <v>3788.860546968407</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N20" t="n">
-        <v>4353.903610841079</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5264.058493781823</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
-        <v>6099.925821879237</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048.000000000974</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000974</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625184151</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464979</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922543891</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766819827</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073909778</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.10959566668</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340431522</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I22" t="n">
         <v>140.96</v>
@@ -5922,46 +5922,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="23">
@@ -5995,28 +5995,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2018.47013910948</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>2936.062862426063</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M23" t="n">
-        <v>3418.242061939566</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N23" t="n">
-        <v>3983.285125812238</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>4893.440008752982</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6159,46 +6159,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="26">
@@ -6229,31 +6229,31 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>2936.062862426063</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M26" t="n">
-        <v>3418.242061939566</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N26" t="n">
-        <v>3983.285125812238</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O26" t="n">
-        <v>4893.440008752982</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6262,16 +6262,16 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
         <v>3583.51196363841</v>
@@ -6396,28 +6396,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
         <v>140.96</v>
@@ -6445,19 +6445,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547393</v>
+        <v>2580.161715517885</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049578</v>
+        <v>2126.14699002007</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352918</v>
+        <v>1711.66299432341</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.81285907341</v>
+        <v>1303.215227043902</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361361824</v>
+        <v>894.2358041066745</v>
       </c>
       <c r="G29" t="n">
         <v>492.3327682958776</v>
@@ -6472,49 +6472,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L29" t="n">
-        <v>2332.601309399844</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M29" t="n">
-        <v>3445.889098227693</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N29" t="n">
-        <v>4010.932162100365</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183336</v>
+        <v>6684.746993153828</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464321</v>
+        <v>6118.115762434813</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543391</v>
+        <v>5462.811290513883</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819485</v>
+        <v>4826.598134789977</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909595</v>
+        <v>4181.776441880087</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666654</v>
+        <v>3583.511963637146</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431654</v>
+        <v>3067.029708402146</v>
       </c>
     </row>
     <row r="30">
@@ -6524,13 +6524,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034234797</v>
+        <v>2287.112034234955</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.36464792635</v>
+        <v>1922.364647926508</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.91243893893</v>
+        <v>1570.912438939088</v>
       </c>
       <c r="E30" t="n">
         <v>1224.779007401802</v>
@@ -6572,28 +6572,28 @@
         <v>5925.707874250955</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306374305</v>
+        <v>5571.538498247191</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.22242242991</v>
+        <v>5159.222422430226</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674068562</v>
+        <v>4762.564674068878</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619041277</v>
+        <v>4358.520619041594</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975413637</v>
+        <v>3939.822975413796</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427020029</v>
+        <v>3503.082427020187</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649802624</v>
+        <v>3078.978649802782</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.55300054406</v>
+        <v>2675.553000544218</v>
       </c>
     </row>
     <row r="31">
@@ -6633,43 +6633,43 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V31" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W31" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="Y31" t="n">
         <v>140.96</v>
@@ -6703,19 +6703,19 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M32" t="n">
-        <v>3788.860546968407</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N32" t="n">
         <v>4728.273641396618</v>
@@ -6870,28 +6870,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
         <v>140.96</v>
@@ -6925,16 +6925,16 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6946,25 +6946,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2046.117175397607</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
-        <v>2963.70989871419</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M35" t="n">
-        <v>3445.889098227693</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N35" t="n">
-        <v>4010.932162100365</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O35" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7107,46 +7107,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7186,22 +7186,22 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
-        <v>3042.307675747712</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M38" t="n">
-        <v>3524.486875261216</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N38" t="n">
-        <v>4089.529939133888</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O38" t="n">
-        <v>4999.684822074631</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7344,46 +7344,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
         <v>894.2358041069906</v>
@@ -7420,25 +7420,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M41" t="n">
-        <v>3670.420662750071</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N41" t="n">
-        <v>4235.463726622743</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O41" t="n">
-        <v>5145.618609563487</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P41" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7581,46 +7581,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="44">
@@ -7657,46 +7657,46 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L44" t="n">
-        <v>3159.388586083262</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M44" t="n">
-        <v>4280.114215286949</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N44" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
         <v>3067.029708403252</v>
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7818,46 +7818,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M46" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>70.05686619102141</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>685.9089394605949</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>176.4768357656695</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>496.2158265843864</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M5" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8242,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8473,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>61.18810711406104</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>940.6347988651447</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8713,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>685.9089394605951</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>645.1956588512423</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9427,10 +9427,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.2158265853698</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>179.2523876827513</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>301.799730824009</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>685.9089394605949</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
-        <v>637.4834235498432</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M32" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>378.1515460156958</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>637.4834235498438</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>147.4078661503585</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M41" t="n">
-        <v>864.2829836734576</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11086,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L44" t="n">
-        <v>835.138663316583</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M44" t="n">
-        <v>644.9963936264486</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292012903</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24153,7 +24153,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24162,10 +24162,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
         <v>168.0209277307011</v>
@@ -24189,7 +24189,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
-        <v>125.1054488487377</v>
+        <v>83.00604195770714</v>
       </c>
       <c r="V22" t="n">
         <v>199.1703102162162</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344290787188</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.38834429078787</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.533699954156589</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699953843495</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24900,7 +24900,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>199.1703102162162</v>
@@ -24912,7 +24912,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y31" t="n">
-        <v>287.4653528494624</v>
+        <v>273.0672506624611</v>
       </c>
     </row>
     <row r="32">
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25134,7 +25134,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25633,7 +25633,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>34.66406242702104</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15184.78357961383</v>
+        <v>1253038.088453473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30192.00001986755</v>
+        <v>2480930.702777752</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45199.21646012127</v>
+        <v>3708823.317102033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62279.9446026502</v>
+        <v>4808665.190726486</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79360.67274517912</v>
+        <v>5908507.064350938</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96441.40088770805</v>
+        <v>7008348.937975385</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113522.129030237</v>
+        <v>8108190.811599828</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130602.8571727659</v>
+        <v>9208032.685224272</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147683.5853152949</v>
+        <v>10307874.55884872</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164764.3134578219</v>
+        <v>11407716.43247347</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181845.0416003508</v>
+        <v>12507558.30609792</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198925.7697428797</v>
+        <v>13607400.17972237</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216006.4978854088</v>
+        <v>14707242.05334683</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233087.226027938</v>
+        <v>15807083.9269713</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250167.9541704671</v>
+        <v>16906925.80059576</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577611</v>
+        <v>976017.2062577608</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577605</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="G2" t="n">
         <v>874233.284163025</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630841</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="J2" t="n">
+        <v>874233.2841630251</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841632724</v>
+      </c>
+      <c r="L2" t="n">
         <v>874233.284163025</v>
       </c>
-      <c r="J2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="K2" t="n">
-        <v>874233.2841632828</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.2841630249</v>
-      </c>
       <c r="M2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="O2" t="n">
         <v>874233.2841630246</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
     </row>
     <row r="3">
@@ -26435,37 +26435,37 @@
         <v>26356.19966309946</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="H4" t="n">
-        <v>26356.19966310741</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="J4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="K4" t="n">
-        <v>26356.19966328369</v>
+        <v>26356.19966327636</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="O4" t="n">
+        <v>26356.19966309947</v>
+      </c>
+      <c r="P4" t="n">
         <v>26356.19966309946</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26356.19966309947</v>
       </c>
     </row>
     <row r="5">
@@ -26530,13 +26530,13 @@
         <v>-1342937.334628471</v>
       </c>
       <c r="C6" t="n">
-        <v>702063.6164260103</v>
+        <v>702063.6164260102</v>
       </c>
       <c r="D6" t="n">
-        <v>702365.9770959431</v>
+        <v>702365.9770959432</v>
       </c>
       <c r="E6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="F6" t="n">
         <v>708897.6844999255</v>
@@ -26545,16 +26545,16 @@
         <v>708897.6844999255</v>
       </c>
       <c r="H6" t="n">
-        <v>708897.6844999767</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="I6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999252</v>
       </c>
       <c r="J6" t="n">
-        <v>88673.68449992541</v>
+        <v>88673.68449992561</v>
       </c>
       <c r="K6" t="n">
-        <v>708897.6844999992</v>
+        <v>708897.684499996</v>
       </c>
       <c r="L6" t="n">
         <v>708897.6844999255</v>
@@ -26569,7 +26569,7 @@
         <v>708897.6844999252</v>
       </c>
       <c r="P6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O4" t="n">
-        <v>388.0294482079482</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28042,7 +28042,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29729,7 +29729,7 @@
         <v>1.564330887049437e-10</v>
       </c>
       <c r="E30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>1.564330887049437e-10</v>
@@ -29780,7 +29780,7 @@
         <v>1.564330887049437e-10</v>
       </c>
       <c r="V30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>1.564330887049437e-10</v>
@@ -34828,13 +34828,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>533.5085282876397</v>
       </c>
       <c r="K2" t="n">
         <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1612.770276144012</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34849,7 +34849,7 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35062,19 +35062,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1423.077163267804</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M5" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35086,10 +35086,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35229,7 +35229,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35302,13 +35302,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35317,13 +35317,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>1235.262333125423</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35469,16 +35469,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,19 +35536,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>747.1142864321608</v>
+        <v>808.3023935462218</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M11" t="n">
-        <v>1427.68449534343</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
@@ -35557,13 +35557,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1433.023225892756</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834172</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35794,13 +35794,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36013,13 +36013,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36028,7 +36028,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>1564.544025458054</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36271,10 +36271,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>957.6506849714521</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36487,16 +36487,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>926.366674114912</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834172</v>
+        <v>1228.661067507426</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,16 +36721,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.770276144012</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36742,13 +36742,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36964,19 +36964,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
-        <v>1124.533120028129</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
@@ -36985,7 +36985,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,22 +37195,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834174</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M32" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>948.9021155840516</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1384.597709982005</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,7 +37450,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
         <v>844.3104324216301</v>
@@ -37459,7 +37459,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37678,7 +37678,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>991.7182985719886</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37912,13 +37912,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M41" t="n">
-        <v>1351.332680151743</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
@@ -37930,10 +37930,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38149,13 +38149,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L44" t="n">
         <v>1762</v>
       </c>
       <c r="M44" t="n">
-        <v>1132.046090104734</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
